--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/外商资本金.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/外商资本金.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,379 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>75.40451</v>
-      </c>
-      <c r="C2" t="n">
-        <v>326.98632</v>
-      </c>
-      <c r="D2" t="n">
-        <v>69.13912999999999</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>39.81476</v>
-      </c>
-      <c r="G2" t="n">
-        <v>306.9543</v>
-      </c>
-      <c r="H2" t="n">
-        <v>52.21799</v>
-      </c>
-      <c r="I2" t="n">
-        <v>85.72866</v>
-      </c>
-      <c r="J2" t="n">
-        <v>26.74663</v>
-      </c>
-      <c r="K2" t="n">
-        <v>121.39644</v>
-      </c>
-      <c r="L2" t="n">
-        <v>21.72517</v>
-      </c>
-      <c r="M2" t="n">
-        <v>34.79266</v>
-      </c>
-      <c r="N2" t="n">
-        <v>230.88273</v>
-      </c>
-      <c r="O2" t="n">
-        <v>32.42209</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.51268</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>94.23112999999999</v>
-      </c>
-      <c r="R2" t="n">
-        <v>34.63965</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.009599999999999999</v>
-      </c>
-      <c r="T2" t="n">
-        <v>74.66396</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.45572</v>
-      </c>
-      <c r="V2" t="n">
-        <v>6.58536</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2.64494</v>
-      </c>
-      <c r="X2" t="n">
-        <v>168.50211</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>600.60114</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>301.06016</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>46.17318</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>21.50456</v>
-      </c>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="n">
-        <v>152.35513</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>4.30404</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>3987.57051</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>157.57577</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>160.1092</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>228.26786</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>4.68676</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>163.58202</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>120.03785</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>170.29805</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>49.52515</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.0331</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>98.03954</v>
-      </c>
-      <c r="C3" t="n">
-        <v>362.85152</v>
-      </c>
-      <c r="D3" t="n">
-        <v>78.87699000000001</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>45.7601</v>
-      </c>
-      <c r="G3" t="n">
-        <v>361.75501</v>
-      </c>
-      <c r="H3" t="n">
-        <v>46.72077</v>
-      </c>
-      <c r="I3" t="n">
-        <v>94.85899999999999</v>
-      </c>
-      <c r="J3" t="n">
-        <v>31.34717</v>
-      </c>
-      <c r="K3" t="n">
-        <v>137.43213</v>
-      </c>
-      <c r="L3" t="n">
-        <v>21.44978</v>
-      </c>
-      <c r="M3" t="n">
-        <v>35.3115</v>
-      </c>
-      <c r="N3" t="n">
-        <v>272.01185</v>
-      </c>
-      <c r="O3" t="n">
-        <v>42.14234</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.70061</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>107.12179</v>
-      </c>
-      <c r="R3" t="n">
-        <v>40.0335</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.009599999999999999</v>
-      </c>
-      <c r="T3" t="n">
-        <v>80.72069</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.31223</v>
-      </c>
-      <c r="V3" t="n">
-        <v>13.33107</v>
-      </c>
-      <c r="W3" t="n">
-        <v>3.51139</v>
-      </c>
-      <c r="X3" t="n">
-        <v>201.47984</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>679.71931</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>347.67426</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>54.41067</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>35.96696</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.17168</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>174.64362</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>4.1444</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>4489.57474</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>165.21591</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>161.85649</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>234.29716</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>2.98374</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>194.35238</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>120.03661</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>182.14314</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>54.02621</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.04588</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>101.396</v>
-      </c>
-      <c r="C4" t="n">
-        <v>401.87585</v>
-      </c>
-      <c r="D4" t="n">
-        <v>98.18545</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>68.89507999999999</v>
-      </c>
-      <c r="G4" t="n">
-        <v>389.88314</v>
-      </c>
-      <c r="H4" t="n">
-        <v>64.45326</v>
-      </c>
-      <c r="I4" t="n">
-        <v>128.60785</v>
-      </c>
-      <c r="J4" t="n">
-        <v>36.20771</v>
-      </c>
-      <c r="K4" t="n">
-        <v>181.61055</v>
-      </c>
-      <c r="L4" t="n">
-        <v>27.63073</v>
-      </c>
-      <c r="M4" t="n">
-        <v>48.86275</v>
-      </c>
-      <c r="N4" t="n">
-        <v>286.1364</v>
-      </c>
-      <c r="O4" t="n">
-        <v>49.27597</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.46709</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>123.40107</v>
-      </c>
-      <c r="R4" t="n">
-        <v>39.28381</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.009599999999999999</v>
-      </c>
-      <c r="T4" t="n">
-        <v>110.46773</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.30273</v>
-      </c>
-      <c r="V4" t="n">
-        <v>12.30054</v>
-      </c>
-      <c r="W4" t="n">
-        <v>3.45624</v>
-      </c>
-      <c r="X4" t="n">
-        <v>203.78457</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>876.58998</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>384.64882</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>61.35126</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>52.96467</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>25.41093</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>228.51694</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>16.07326</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>5286.65074</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>193.91009</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>195.13867</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>254.07426</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>4.69678</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>219.51829</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>140.45942</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>194.14452</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>61.56073</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.008</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
